--- a/熟练度.xlsx
+++ b/熟练度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C7BB7F0C-95FD-4005-9FEE-F5565AD6B1E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45CDB396-8C3B-4A3A-BA77-5FBC9D338556}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>leetcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,12 +155,86 @@
     <t>lc724</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Exchange Seats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiggle Subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niuke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/questionTerminal/430180b66a7547e1963b69b1d0efbd3c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折纸问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分田地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/questionTerminal/fe30a13b5fb84b339cb6cb3f70dca699</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/185/B?&amp;headNav=www</t>
+  </si>
+  <si>
+    <t>G[u][v]表示u到v长度为k的路径数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转矩阵，顺时针打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2n+1个数只出现1次的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或，两两抵消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate最大分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次会最优解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次能A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +269,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,15 +295,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,19 +584,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="7" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -529,249 +611,384 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>798</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>239</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>955</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>495</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>354</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>649</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>955</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>911</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>354</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>391</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>724</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>914</v>
+      </c>
+      <c r="G20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>649</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>324</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>376</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>646</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>716</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>300</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>626</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>176</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>516</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>955</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>911</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>391</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>724</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>914</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>300</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>196</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>176</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>516</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>1273</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1" xr:uid="{5B2FE0C5-5111-498C-81F5-50A4AAB33C01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/熟练度.xlsx
+++ b/熟练度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45CDB396-8C3B-4A3A-BA77-5FBC9D338556}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671F6B4-63E7-472A-838F-AD99EC0A82A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>leetcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,77 +160,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exchange Seats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wiggle Subsequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Length of Pair Chain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>niuke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nowcoder.com/questionTerminal/430180b66a7547e1963b69b1d0efbd3c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折纸问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分田地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nowcoder.com/questionTerminal/fe30a13b5fb84b339cb6cb3f70dca699</t>
-  </si>
-  <si>
-    <t>https://ac.nowcoder.com/acm/contest/185/B?&amp;headNav=www</t>
-  </si>
-  <si>
-    <t>G[u][v]表示u到v长度为k的路径数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转矩阵，顺时针打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2n+1个数只出现1次的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异或，两两抵消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotate最大分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次会最优解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次能A</t>
+    <t>i&lt;=n-(k-c.size())+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,14 +203,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,18 +221,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,20 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="7" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -611,384 +533,427 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>798</v>
-      </c>
-      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>239</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>955</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>495</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>354</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>649</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>324</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>955</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>911</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>391</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>724</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>914</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>196</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>516</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>239</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>955</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>495</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>354</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>649</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>324</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>955</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>911</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>149</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>391</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>724</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>914</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>376</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>646</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>716</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>300</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>626</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
         <v>29</v>
       </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>196</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>176</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>516</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>1273</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" xr:uid="{5B2FE0C5-5111-498C-81F5-50A4AAB33C01}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/熟练度.xlsx
+++ b/熟练度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671F6B4-63E7-472A-838F-AD99EC0A82A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CFC7D11-E213-4FCB-8409-7313A21BA6CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>leetcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,12 +163,51 @@
     <t>i&lt;=n-(k-c.size())+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>冷却时间卖股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC12ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能抢二叉树不相邻层的房子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC 1ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC77%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +242,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,9 +269,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,17 +555,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -551,117 +597,147 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>309</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>337</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>198</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>77</v>
       </c>
@@ -669,77 +745,77 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>649</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>239</v>
       </c>
@@ -753,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>955</v>
       </c>
@@ -761,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>495</v>
       </c>
@@ -769,7 +845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>354</v>
       </c>
@@ -783,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>649</v>
       </c>
@@ -791,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>324</v>
       </c>
@@ -799,7 +875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>955</v>
       </c>
@@ -813,7 +889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>911</v>
       </c>
@@ -821,7 +897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>149</v>
       </c>
@@ -829,7 +905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>391</v>
       </c>
@@ -840,7 +916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>724</v>
       </c>
@@ -848,12 +924,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>813</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>914</v>
       </c>
@@ -864,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>300</v>
       </c>
@@ -878,12 +954,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>196</v>
       </c>
@@ -891,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>176</v>
       </c>
@@ -899,12 +975,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>516</v>
       </c>
@@ -918,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>45</v>
       </c>
@@ -932,12 +1008,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1273</v>
       </c>
